--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2022/41_İzmir_2022.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2022/41_İzmir_2022.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\İllere Göre Tahsilat Tahakkuk 2022\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{48112EED-3135-478A-8CBD-41C9F1F6BD53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{29A0D747-7B1E-4029-84AF-B7D246A36A53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8544" yWindow="6144" windowWidth="6528" windowHeight="5280" tabRatio="681" xr2:uid="{186D4284-96D8-402E-9792-F8853386248E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="681" xr2:uid="{1834249A-612C-42F6-97D3-1B0585566B72}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK " sheetId="113" r:id="rId1"/>
@@ -974,13 +974,13 @@
   <cellStyles count="9">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{78421015-F181-4299-90F8-108A84B61BA1}"/>
-    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{8E843E68-21C5-4878-86F5-B9644BC9C5C6}"/>
-    <cellStyle name="Normal 3" xfId="4" xr:uid="{7A6F64F8-2C4F-4C8D-859C-F610DF0FD664}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{8B7A3344-5956-4F34-887A-3154F484D761}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{5BA25898-1E34-4B0F-B3DD-624A67F920A8}"/>
-    <cellStyle name="Not 2" xfId="7" xr:uid="{5BE77ECC-6CA8-4FC1-B220-DC2DBF2F3058}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{68AF3FB5-19E1-4496-AF8D-FBCF176A8EEC}"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{FEAD3892-17A3-4584-B793-EFC11F9F91C4}"/>
+    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{824B1A48-5F4C-4C1C-B0A9-6C12A8F5E682}"/>
+    <cellStyle name="Normal 3" xfId="4" xr:uid="{03E05F54-01D6-4610-897A-CDC7F907A31A}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{4C819142-78B8-4A03-A7E2-EB75C6DAF8C6}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{E5DDBA29-21AC-4CDE-A558-24A662BAACA6}"/>
+    <cellStyle name="Not 2" xfId="7" xr:uid="{6700FB3A-F829-4EA6-8E43-F92E4E27F89E}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{C313CE73-7AE2-41FD-9DAD-53715ADC7F74}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1350,7 +1350,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{002CEF0C-916B-4530-BF36-3FDCDD757178}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{216D8940-986E-4558-865D-A761E8F4769E}">
   <dimension ref="B2:F106"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A46" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -2680,17 +2680,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{7A044545-632B-4EAB-B59A-3162F1E2F301}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{2A388D6D-5E7C-4317-B513-3C5EE08EB82B}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{1282CB51-DD74-41C7-BAE7-EDA492A1FB38}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{E590E329-E3BB-4D6F-8BBA-FC1341DD79DC}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{5DEDC293-EFFF-4465-9A61-E2B1007EB1BF}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{E722E4F4-9E3C-4D0B-AB9A-31738F506088}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{D76F2D0E-61E8-4A53-8677-D638DF842A73}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{BE399AFC-7D27-415D-ADD1-6F3C42F8FEC0}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{5E6C14F2-D59F-408B-8BB2-DE28EFC415CC}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{35C041C8-B679-4F10-8DE2-2C7DA912CA6F}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{E42C439E-3CA1-46F5-A1EE-B1604FE96344}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{168BED70-244B-4C22-AD5D-8756FC330CF1}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{B37E2140-66F8-4C04-89E9-D49588F1399E}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{E88776AE-4A6D-4EF9-BE0B-02F85664D697}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{0A6B81B6-F6C2-4E4B-A6E1-4B969B751F74}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{75EE0DEE-62EC-4C8B-886D-B69D35A7107A}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{559D1EB8-91F0-41E5-A28D-8F53F0FCE3A9}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{5678935A-E258-4C03-8A56-F1086FAEF917}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{EAD2B531-2F4E-4617-8F8B-E92D5E4C0EF0}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{E430E8E4-6FD7-48C7-847F-74CA6C8D7DE8}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{15AC8AA6-D43C-4941-B3FD-6E54FA37DE30}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{B7A2E380-B685-4D80-8DAB-D45F914B838F}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -2703,7 +2703,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A987813-8D31-4580-A91A-5F0D92DE7475}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B22BFA77-DA73-46EE-B888-D689ADB91962}">
   <sheetPr codeName="Sayfa3"/>
   <dimension ref="B2:F105"/>
   <sheetViews>
@@ -4029,17 +4029,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{34894C24-4FC3-43FD-B9A5-E4391D892751}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{F626B68A-1C51-42D8-A4F6-EECBA1F86D4B}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{E3C1ACF4-9AB3-4A8F-8208-1BEE32BB6C6B}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{E6831CAC-F5EA-4BEB-B484-67FB563A1C8D}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{B69C0B9C-6115-4585-962B-084DD45B258E}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{B90ABF71-32FE-430F-8A62-0447386A1F12}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{9D5D9FE9-32C8-4E87-B180-36021A024301}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{FEA18C97-AE03-42E9-84DA-F93F03C44A9D}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{45CE9570-3CD3-493F-8639-D79C25911A94}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{DF721548-5559-4426-9E62-DDEC3476B561}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{504BBD65-E3BB-4C8C-B95D-FFA03D5F224A}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{5C8B5AE2-6765-4539-B9B0-57CF75D113B7}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{06886D46-89E9-445B-962F-1F182AB90084}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{2B734273-0A6C-495F-B61E-350D519A66E5}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{586AF36E-2D8B-43EE-9150-CF247641376B}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{317AE6DF-75E4-4F47-9270-8885C41B7793}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{39D0D0DE-292B-4C24-97ED-7F67D98CD87E}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{745E01DA-4364-4FEE-A975-0D9B64A3D9C1}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{DB64DA0C-8042-4E41-9C18-B09BCBCE9287}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{53CF694C-E704-4369-821E-27E207CB20BE}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{56C6036C-120B-402C-AC6F-B360E229BC78}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{D054A803-65BD-4A3C-A439-A20AF8C8C737}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -4052,7 +4052,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9ED81C71-E5A4-48A5-86ED-9FD141D62D21}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94DFEFB7-E602-44D1-8C9A-3664F70405A5}">
   <sheetPr codeName="Sayfa1"/>
   <dimension ref="B2:F105"/>
   <sheetViews>
@@ -5362,17 +5362,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{8F7DDD5A-A2E8-4385-91B7-47E8A8235B29}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{313F3EFF-E371-4DE7-B541-8BF742CE78E1}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{6B431DFF-D67F-49AA-801E-B22B6F8A5183}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{F52A77D0-8F86-429B-A679-1FD152FA1A84}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{A81D6DA4-F0B7-4B9D-A36B-8E793484368F}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{A29456AE-BC46-4B5E-9DA5-45662B1611A8}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{1B88C2E1-5F0C-48C6-95C8-4D39A142CC52}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{4971A9B4-0D8C-44AC-BEF5-8190F6CD5D58}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{A9C30CA3-F397-4CF9-8541-D94EDEBE9AC8}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{BBC9A979-4FFB-43FB-9E54-26E7AC4856FF}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{F56CA9C1-1380-4962-A4D1-4A72C70F4454}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{54D634DE-F110-42E3-A90F-3A2838C4E6D9}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{EEA6BAC1-04E7-464D-B6E9-19DB005B1A99}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{8909B997-691A-437C-A75A-3067D4EB03A5}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{125F9AB8-C3E6-417A-A692-D91E86960796}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{E5F29FA6-7D89-4D40-80D5-2356DAD24114}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{9DC7B7DE-A897-4AD3-A025-2F8733A4D838}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{900B9FA6-2FD2-4047-95D9-9BA3FAF62FD0}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{6EA3CCE2-656C-4B97-8EDF-D1E44609253C}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{808642E1-7F74-4D89-AF74-1067095E8676}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{21EF8288-3733-439D-A9B8-6A118BCCDA4C}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{7AE059FB-0B6A-47C4-A6F9-7473ECB3FA67}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -5385,7 +5385,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{160A496F-77C0-4E1A-B455-DCD725B76190}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C914B74-87F1-44B7-B55C-3E6E7BB3B45C}">
   <sheetPr codeName="Sayfa2"/>
   <dimension ref="B2:F105"/>
   <sheetViews>
@@ -6701,17 +6701,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{622E16F0-A95F-406B-9490-5B76538B1977}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{8FB84567-34B9-459F-B99A-77A22F604AEC}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{6B6EA03E-8A62-4F94-9339-9A7227454D61}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{4238B189-47D7-409F-AB40-DB87B02B8626}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{224E833E-EF59-4D10-A591-BAED89C03880}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{213EEE25-928F-4BA8-BEBF-7E61E1860153}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{D45E19A7-806F-4581-B5B9-A8004628A6B6}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{00B7F4AF-49CD-4BA4-83D2-15DADB163644}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{A9BF73A8-B6FA-4F64-96CE-DB8BCC7EFDA1}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{B9F5DCDF-3C41-450B-AAC8-2842A45118BB}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{1D5C0868-026A-4C9F-83D9-31828E3E68F4}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{F15415AF-C893-41E4-873F-FC5F57D10CA5}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{2E1D0ED7-A93F-4C70-9C3E-07BEA94F1990}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{26995916-460F-40DC-8C67-B0709AE545D8}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{90174C35-1192-4C65-AD16-2CFE37A3696C}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{BD37CCBA-79D6-4E14-AA7C-8AA58065E6FE}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{C966781A-9623-4455-ABD1-591ECBB26856}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{B22828F5-530A-4F6A-AAAD-ABED77AF0F6A}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{6DD7EBB2-414D-4A36-BE90-BF16443037BD}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{52912A5E-C76B-41E2-801D-74B7204AD4A3}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{08005C0E-DD82-4636-A0E7-964B7C973C72}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{CA4824AC-767D-4700-8FA5-7D41FE5EFD7F}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -6724,7 +6724,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA54DC3C-FB5D-4432-AE30-827D6433B485}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAE8900A-CAC8-4BBA-85DC-47B8585734A3}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -8049,17 +8049,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{2873B952-0C67-4C4D-BFDA-DC9F5AEC80E9}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{ADD31815-46AA-4343-B0C5-6A766BB33046}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{92776A4E-D4EC-494E-BD08-835891703C28}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{04BCF17D-6184-407B-9B5C-202EE05C7700}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{C7A40D8B-5D62-44E6-86BF-98B39BD59751}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{82CB12A1-E497-4A3B-BF35-AABC6A57A1E7}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{1C54F238-3A46-461D-AEF1-8ED043C698E5}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{177EBF83-7C38-42A7-B5A3-645EDEE9975A}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{58408547-E8C1-40D5-B62E-92CF943FCC87}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{ADD7E8F1-50C2-479C-8A61-35D3326FE3B7}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{B536FDDA-9D76-4CF8-9191-CB858937A863}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{4A1BFF5D-EF98-48AF-BA1A-84B992AD98D8}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{BDFA28E7-7B7B-42D8-A8DE-728254504DD5}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{06509AD0-4B1D-453B-A985-1384B7220061}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{50A4791B-DE07-4573-866E-F9034458672B}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{D75B6E2A-CB0B-42B2-BD87-B061301B5234}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{A8239633-FBE5-46F7-B890-67706A479CAD}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{16FD26A3-468B-40B9-AC48-B260D90E14BB}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{BAECAC9D-BCE1-4637-8BAA-B0F4518A1E93}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{931A3B94-E0E8-44ED-B182-D7EEB735A731}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{7AEC9510-8926-4D6E-A378-CC17930633E0}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{F7DFD841-2751-4547-83B5-E6CE472A8E73}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -8072,7 +8072,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8E135C2-5CCB-48EB-A776-DFB2338EB400}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FEC2CE0-AF34-484C-88E7-09843221295F}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -9397,17 +9397,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{BB214731-41AA-4E55-92F2-07DB7350BE7C}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{BFA0050A-345A-4ABD-B4F7-C212BA993F3A}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{1B4E86C0-4FD0-4465-82CC-263190D8318B}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{BEA8C191-50C4-4F55-B911-6CDDB7B4961C}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{CD3454E0-F9B0-4F5B-9621-3B1798F8AC6A}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{3AF69515-3252-41D9-9B0F-6C5500675071}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{FC3204C6-A203-47AB-9986-780467B7A2DF}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{4925B361-F59F-4429-90E0-A36F06C1FE39}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{3F637D0C-2DA3-4553-B54C-21C698DD9ED4}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{E656B607-477C-4463-813C-BD79950DE23E}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{F33C869D-7A14-43AE-84E3-252EFC94AAD8}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{900A94E9-C4C3-491C-8933-7D640AFFDEA0}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{5D64EB65-8779-4415-AA7A-C5DE7AF0511F}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{7F08F6C0-FD13-4E1B-B9EF-31BCC87F3B1D}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{AE96EAB7-9141-4084-ADFF-8C2E68D0C8D4}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{E24BFF8D-475D-4446-826F-7E4BC18C28EC}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{89005A25-F1CE-4E9A-B4EA-80EF78F1BAE9}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{1BAA5E60-E6C9-478B-8CE6-DB0CD5DE9F6D}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{0803CFB7-FF28-4DF2-A5FA-4A232B093C53}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{B362C73B-E7D7-47D6-90F3-8725CC54898C}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{C2559337-9DD4-4C0B-9CD2-367823302892}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{5D13CCA1-4B3E-4743-B60D-F6F6D3EDF067}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -9420,7 +9420,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA8023D6-1118-4ADE-9CAD-42DECF700D43}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27EB0771-49A3-4E77-A338-39002C6FD4C8}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -10745,17 +10745,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{793FA21F-A104-42B3-BD7B-E6E199C6D9E6}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{30AB6521-9757-486B-B4EB-DD3F85B672B4}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{31E3329F-9BA7-4027-83EC-0A73D55BD29D}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{2069E5FB-20FE-4926-AA7A-1EDAC5E61FD1}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{37C3D7D7-3831-4818-8235-EE8A38AD90CF}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{D176C6A9-406C-4BB4-AF01-DC33D3338D09}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{9BFF5093-6CD4-4ED0-9958-83FA1CE70F6A}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{7C5A449B-AAE1-4021-86A7-88D24BBC4B0D}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{9BE8B9CB-D5A9-4001-A09A-0D36731524EE}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{88D2B420-FBC3-433C-A1B6-2F80DAD207E7}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{C985F4E7-34CA-4553-9A04-370299699934}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{5A740E0D-6782-47D4-AFD6-83C1794A93D8}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{6F5DF5BF-9E6C-455E-890E-9D0A1158B20D}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{D9EE4DEC-5903-4FEC-80D9-C4E76CFD5483}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{D4FF95C9-1B96-42A0-8222-21228652BE73}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{B98E473F-B21B-48C1-967B-8ABAAD1FDE70}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{9E49E9FD-E1F3-43E1-ACE7-BDE75E3BFF4F}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{A8218E2C-2D84-4580-B695-16997F9F1C7F}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{AEFBB66E-1272-4C33-987E-D35DD79A5469}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{D2EAE77B-1914-4C8D-A634-25DD91AC0EEC}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{3F639478-881D-4027-AE1A-8E88F24ACF77}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{A1FABC88-3DF4-45A0-843F-ACC44DAFC8F4}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -10768,7 +10768,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBEBA85F-5E88-4D2F-9CA8-BF0F65F9B027}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{811989BD-8790-495F-B4D5-ECA673ABE91D}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -12093,17 +12093,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{AB36B10C-70FB-465E-86F1-F7D3371FBA79}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{0EA9774C-11AE-46B7-B610-AB8EB9E70CC3}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{3260B0EC-D0D6-4816-B49F-7D97D5774F75}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{524495D5-8B0A-4759-9B23-2158001B9F90}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{D21B7D29-182E-4130-8BD9-17B2611481E6}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{020172F8-60CF-46C3-8027-477AAFB3F93A}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{D9B3CA63-DEF7-4241-8D5B-E1C9B45002ED}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{3BBF597E-B345-4A18-ADC0-3233A7AE7C7F}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{307AC7E6-CD96-44AD-B240-C14E180C2F1E}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{391CB601-1A82-4A80-A19E-A5150639AAAE}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{3552A26B-5756-4212-A529-DDAF58233E88}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{76C907A5-5079-4530-B22C-D05EDBBA29AD}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{4B7668CA-2736-49C2-9FE7-ED99FE4CEEF7}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{6C0EA3BE-31BB-4A25-B729-738043EF100A}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{7E8C104D-3FB7-4898-A0BA-B2E42A531B91}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{C07A840A-37D2-48E8-AB4D-590094D1C9AC}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{DDDF9487-1631-402B-9DF1-F09A8DF576AB}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{AA9081A8-FC57-4A97-B925-11B5BCB16DD5}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{5A7065A7-72D7-45D1-9135-218FAB3DAFEC}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{513CE904-C7B3-4697-93C6-56D6B2CDAEE0}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{9B7EADB7-E272-4759-A2E9-448AE9762BB3}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{576D24C7-F8A9-48CE-BF60-DF984ACEFF9D}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -12116,7 +12116,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFEB0B98-75A6-4DA6-8F4B-36EB264C9AAC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72BCB7C9-EF76-4F38-90F6-50446CB44144}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -13441,17 +13441,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{FB4C616F-68C6-42FD-8F79-E4273C14C538}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{BD2778AB-217D-4883-9655-27AD68A24A7B}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{8DE86D6A-0990-456F-8E3B-147EE7BBFCF3}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{F2B675B0-E120-4693-94F5-E601C0CF034D}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{9918A16C-197D-4E99-B4F4-80F951E3EE6E}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{01C3C72E-C61F-4DD9-93A0-B3474E4C8470}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{7867C0C3-EA89-463C-9A72-359938C14F57}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{420DC963-267E-4C63-A398-F2786BB5FE6B}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{27FDA219-A5EA-4375-8774-C4FE2190A200}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{162212E7-F88A-4055-BBCE-5158825F831C}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{07623251-7394-4E56-B84C-A7BD994E6F25}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{7F3E1059-9D23-482B-B8E5-79AFFA3C415F}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{440499CC-358F-47A7-9DEF-BB395FCA8470}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{830C233B-32A5-4771-A4F4-39979F07320E}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{DB4C815D-84C8-4AF4-956C-ACEAE42F0EBD}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{A5022BDD-C599-416A-91DA-FB30E3B9D013}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{45CD3271-2AF9-4A8F-97D8-78E7249779D4}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{811AC64D-3C02-4AD1-B975-AF0982084B22}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{08F02CE1-9C94-4296-B26C-3511C3DC3E2C}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{BA2815CF-A3BD-4106-958D-D1DFBFA703FA}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{92059327-BAE6-4749-980D-F1DCB3C37E71}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{7E74668B-6C25-4DFB-9570-F7E45AA57683}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -13464,7 +13464,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{710864B4-8737-4D64-BE23-456A63E32673}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42BCF44A-3E59-48B5-83D9-B823DD413117}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -14789,17 +14789,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{A68975BD-0EAC-4030-9145-EB9F8FB72C73}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{AEE44DA9-31FC-4E3C-8AAF-60F91AA34BF5}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{4DC9CC32-1D61-466F-ADF2-F732FF2D2897}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{C2059204-1F33-49CD-80FE-BAF4DD5BD960}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{867CCAF6-2F5C-4F24-B837-184F83B54002}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{109B84F6-6431-416A-A9B0-601B42AEA0C8}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{09E87D16-4071-4B03-B716-FB6FB8249F74}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{0BD3E323-9231-491A-BF27-0AB221BDC501}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{81B0D9A1-9662-487B-8A00-F21DD4233D2D}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{7F184F1D-1660-4C04-8AD5-1627FE1226EB}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{36DF6BBF-B79B-43DE-AD7C-2F95E6A1AB00}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{633EFAB4-BA2A-4939-B740-F9F51D5634C6}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{6B50562D-6A72-4FDE-9D77-3230A046A732}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{1924E409-86C6-4D52-A78D-06ED8A4F3DF3}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{ABA3D051-A675-4FAD-82D6-B3BE86B9D707}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{9B952275-5179-42AB-91FB-41E00E15491C}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{C112005C-E2CB-4966-BF70-DC9AFC1A14FE}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{B53E0F77-DC87-4A00-9603-DF880F99A56A}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{3A2645CB-BE28-48DC-840F-E2EA1BD9B399}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{51EBCB8C-FE23-4153-BF5F-F2183A4A40FA}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{FBE6388F-7824-44AA-A206-8E0ED84D5716}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{D2A65438-4563-4E86-A21E-81CB334C6F04}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -14812,7 +14812,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A002127C-070F-42A7-B14D-F0F4DABEA6C6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E6ACB9A-5E9B-4B69-AFA0-A3491A206666}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -16137,17 +16137,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{84BF979B-167F-444C-B884-C95AC76857BC}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{D495E1F9-00A8-4A21-9DE9-90DE2DB45332}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{62C88EE3-DF63-46F5-BD19-C84E3D86F8EC}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{5A542E7B-6BDF-4EFC-A934-343EE69E494F}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{833FC063-053B-46F7-9D6A-7B4EF84B84DD}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{04F98697-BE0A-4293-8FBC-2850E7A9926D}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{C50D0E5D-BC4F-4075-80D8-8B3FC6C78BCD}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{D006451F-F2DB-480E-95CA-9C7BBFBC8A50}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{E4612F9A-9321-4248-8669-821996EAD6E7}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{D5A650B0-6D77-4321-BFEA-DEB69510F7AC}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{6AF5C676-508D-460F-A8B7-A4EDD2F71364}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{D7FFBEDF-5660-44AB-9E96-D37E335B1642}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{7F576CFF-69B0-46EB-AA5B-631465C4C054}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{10A0A18E-8F57-4401-BECD-BE8060750786}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{3CD8FD9D-B0D7-4363-93FD-7B47B62D9E3F}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{01339EF1-966F-4A28-B7B4-586E70511CDC}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{692E32B5-ED13-4478-9712-69DD1FD833F4}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{12C065F9-FA06-45B8-9E26-A9BCB64136C0}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{C182CE50-DDEB-4C76-A5ED-C8DBB093C46A}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{01A03366-F143-4F24-9010-715017C2C8A8}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{4F8464E4-15F0-4C6E-9E80-D33A1AF15D44}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{DB9BF3E0-3DD4-4DED-B83D-D5C289808362}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -16160,7 +16160,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D181BF0-04DD-48CD-81AB-7C07B16B9DF1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{894BB152-AB0F-4592-A9BA-1C775D3B7C4A}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -17485,17 +17485,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{FE93C70E-520B-489E-92BC-F4547F1905E4}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{9674A553-49F6-49DE-B20D-B8B72AC70AFB}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{89A4470F-78D5-44EB-BBAF-F0C1DF313D48}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{F022F072-6E55-4262-A158-50888567AE19}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{CCC023F3-AF08-45E4-ADB0-52DAE79FBC7A}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{D9445CAF-B9C0-4EC9-A5F9-8693B3E320F4}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{FCC8EA5D-8868-43B1-A27E-7B02666756CE}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{0597D2B4-838E-4724-B5FF-CA2BDD549EBF}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{495F0F6D-8F76-4CDC-B2B0-2874F40ADF3D}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{2AFA2133-3D1B-4932-9D94-1AEF42DE92C6}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{493BFF17-DD0E-43FA-B503-9C51CD337F6F}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{38D9001D-DCCA-425F-A930-3374FE57AB64}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{F454FF51-0DD7-4D5F-8FDA-BB46742C2568}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{B1B856E7-83AA-4DFD-B9DF-4D91F2361EB8}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{E42F41F6-B34D-4AC9-93E6-33F984400CC4}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{B8AAE6CA-3DC6-45C4-9EDB-F28033B0B020}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{6F01D6B2-ED1C-4327-9918-48D9525B8694}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{32D71D19-64E0-4B78-A8C0-05D6F7F0C8B4}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{CC09D2BC-19A9-4860-8610-BA9D2D4617D9}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{AEE373B4-97CE-4CFC-A17F-5D08B58EB893}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{70F70A63-C0DD-4A54-BBE6-4D4E6220FBFA}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{B7A646F8-CD9B-45B4-A55A-7164274942FD}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
